--- a/InfiniteScroll/AngularJS - InfiniteScroll.xlsx
+++ b/InfiniteScroll/AngularJS - InfiniteScroll.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>Matríz de Evaluación formal de Alternativas</t>
   </si>
@@ -184,13 +184,19 @@
     <t>Muy dificil de implementar, contiene muchos otros modulos de ionic</t>
   </si>
   <si>
-    <t>http://microblog.anthonyestebe.com/2014-01-11/infinite-scroll-with-angular/</t>
-  </si>
-  <si>
-    <t>InfiniteScroll by anthony estebe</t>
-  </si>
-  <si>
     <t>NO FUNCIONA</t>
+  </si>
+  <si>
+    <t>Si inicialmente la pantalla no está llena, no anda el scroll</t>
+  </si>
+  <si>
+    <t>https://github.com/lorenzofox3/lrInfiniteScroll</t>
+  </si>
+  <si>
+    <t>lrInfiniteScroll by lorenzofox</t>
+  </si>
+  <si>
+    <t>NO FUNCIONA, pero el demo si.</t>
   </si>
 </sst>
 </file>
@@ -619,6 +625,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,8 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,7 +1093,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1098,7 +1104,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="25" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1113,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="25" t="s">
         <v>22</v>
       </c>
@@ -1116,7 +1122,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="39"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="25" t="s">
         <v>21</v>
       </c>
@@ -1125,7 +1131,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="29" t="s">
         <v>20</v>
       </c>
@@ -1161,7 +1167,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -1172,7 +1178,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="25" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1187,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="38"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="25" t="s">
         <v>22</v>
       </c>
@@ -1190,7 +1196,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="39"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="25" t="s">
         <v>21</v>
       </c>
@@ -1199,7 +1205,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="29" t="s">
         <v>20</v>
       </c>
@@ -1236,7 +1242,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -1247,7 +1253,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="38"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="25" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1262,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="38"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="25" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1271,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="39"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="25" t="s">
         <v>21</v>
       </c>
@@ -1274,7 +1280,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="29" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +1317,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -1322,7 +1328,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="38"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="25" t="s">
         <v>23</v>
       </c>
@@ -1331,7 +1337,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="38"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="25" t="s">
         <v>22</v>
       </c>
@@ -1340,7 +1346,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="39"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="25" t="s">
         <v>21</v>
       </c>
@@ -1349,7 +1355,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="40"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="29" t="s">
         <v>20</v>
       </c>
@@ -1379,7 +1385,7 @@
   <dimension ref="B1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1412,71 +1418,71 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="2:14" s="11" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J10" s="16"/>
@@ -1498,34 +1504,34 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="20"/>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="51" t="str">
+      <c r="D12" s="53" t="str">
         <f>Alternativas!C5</f>
         <v>ionInfiniteScroll by ionic</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51" t="str">
+      <c r="E12" s="54"/>
+      <c r="F12" s="53" t="str">
         <f>Alternativas!C7</f>
         <v>ngInfiniteScroll by sroze</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="51" t="str">
+      <c r="G12" s="54"/>
+      <c r="H12" s="53" t="str">
         <f>Alternativas!C9</f>
         <v>infinite-scroll by sparkalow</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="51" t="str">
+      <c r="I12" s="57"/>
+      <c r="J12" s="53" t="str">
         <f>Alternativas!C11</f>
-        <v>InfiniteScroll by anthony estebe</v>
-      </c>
-      <c r="K12" s="52"/>
+        <v>lrInfiniteScroll by lorenzofox</v>
+      </c>
+      <c r="K12" s="54"/>
       <c r="L12" s="16"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
-      <c r="C13" s="54"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="19" t="s">
         <v>25</v>
       </c>
@@ -1582,11 +1588,11 @@
         <v>30</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K14" s="37">
         <f>IF(J14 &lt;&gt; "", $C14*VLOOKUP(J14,Criterios!$C$8:$D$12,2,FALSE)/100, "")</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L14" s="16"/>
     </row>
@@ -1620,11 +1626,11 @@
         <v>30</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K15" s="37">
         <f>IF(J15 &lt;&gt; "", $C15*VLOOKUP(J15,Criterios!$C$17:$D$21,2,FALSE)/100, "")</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L15" s="16"/>
     </row>
@@ -1658,11 +1664,11 @@
         <v>30</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K16" s="37">
         <f>IF(J16 &lt;&gt; "", $C16*VLOOKUP(J16,Criterios!$C$26:$D$30,2,FALSE)/100, "")</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L16" s="16"/>
     </row>
@@ -1696,11 +1702,11 @@
         <v>10</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K17" s="37">
         <f>IF(J17 &lt;&gt; "", $C17*VLOOKUP(J17,Criterios!$C$35:$D$39,2,FALSE)/100, "")</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L17" s="16"/>
     </row>
@@ -1730,7 +1736,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="23">
         <f>SUM(K14:K17)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -1744,33 +1750,40 @@
         <v>42</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="52"/>
       <c r="J20" s="59" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D28" s="33"/>
@@ -1818,12 +1831,7 @@
       <c r="F36" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
+  <mergeCells count="14">
     <mergeCell ref="H20:I21"/>
     <mergeCell ref="D20:E21"/>
     <mergeCell ref="F20:G21"/>
@@ -1832,6 +1840,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1859,7 +1873,7 @@
   <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1887,15 +1901,15 @@
       <c r="C5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
@@ -1907,15 +1921,15 @@
       <c r="C7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
@@ -1927,15 +1941,15 @@
       <c r="C9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
@@ -1945,17 +1959,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+        <v>47</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1972,19 +1986,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Metodologia xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">02 - Ágil (Scrum)</Metodologia>
-    <Lenguaje xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">01 - Java</Lenguaje>
-    <Documento xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">012 - Evaluación de Alternativas</Documento>
-    <Proyecto xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">HAT</Proyecto>
-    <Repositorio xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">SHP</Repositorio>
-    <Obvservaciones xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D3550BD671CC24D8634658C19DF9C1C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="969819dc742d0d1a9d6c20a33d35a298">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="f3260fcb-196f-4a41-9fc2-30acd94c5c3c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="483f2b551340af08ea73f0ea32415658" ns1:_="">
     <xsd:import namespace="f3260fcb-196f-4a41-9fc2-30acd94c5c3c"/>
@@ -2176,29 +2190,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Metodologia xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">02 - Ágil (Scrum)</Metodologia>
+    <Lenguaje xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">01 - Java</Lenguaje>
+    <Documento xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">012 - Evaluación de Alternativas</Documento>
+    <Proyecto xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">HAT</Proyecto>
+    <Repositorio xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">SHP</Repositorio>
+    <Obvservaciones xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A06C287C-3057-48AA-9B31-96FE558091AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9AA2E3-8F3B-4292-9D75-D05EDCED349E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3260fcb-196f-4a41-9fc2-30acd94c5c3c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26AE9AD1-614C-4253-B2E8-15D7A4DC770C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD0ABB0-1E8D-4DCD-AB56-33C8E5C70157}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2216,18 +2237,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26AE9AD1-614C-4253-B2E8-15D7A4DC770C}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A06C287C-3057-48AA-9B31-96FE558091AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9AA2E3-8F3B-4292-9D75-D05EDCED349E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3260fcb-196f-4a41-9fc2-30acd94c5c3c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>